--- a/medicine/Mort/Holy_Cross_Cemetery_(Culver_City)/Holy_Cross_Cemetery_(Culver_City).xlsx
+++ b/medicine/Mort/Holy_Cross_Cemetery_(Culver_City)/Holy_Cross_Cemetery_(Culver_City).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holy Cross est un cimetière Catholique situé au 5835, West Slauson Avenue à Culver City, en Californie. Il est géré par l'archidiocèse de Los Angeles. Ouvert en 1939, il couvre 200 acres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holy Cross est un cimetière Catholique situé au 5835, West Slauson Avenue à Culver City, en Californie. Il est géré par l'archidiocèse de Los Angeles. Ouvert en 1939, il couvre 200 acres.
 Il contient, entre autres, les tombes et tombeaux des professionnels du monde du spectacle. De nombreuses célébrités se trouvent dans les sections proches de "La Grotte" dans la partie sud-ouest du cimetière (après avoir franchi la porte principale, tourner à gauche et suivre la route la plus à gauche en haut de la colline).
 </t>
         </is>
@@ -512,20 +524,91 @@
           <t>Célébrités inhumées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(liste non exhaustive)
-A
-Gypsy Abbott (1896–1952), actrice
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(liste non exhaustive)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gypsy Abbott (1896–1952), actrice
 Frank Albertson (1909–1964), acteur
 Sara Allgood (1879–1950), actrice
 Ramsay Ames (1919–1998), actrice
 Tod Andrews (1914–1972), acteur
 Richard Arlen (1899–1976), acteur
 Henry Armetta (1888–1945), acteur
-Mary Astor (1906–1987), actrice
-B
-Joan Banks (1918–1998), actrice
+Mary Astor (1906–1987), actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Joan Banks (1918–1998), actrice
 Sally Blane (1910–1997), actrice
 Joseph Bodner (1925–1982), illustrateur et peintre
 Roman Bohnen (1901–1949), acteur
@@ -536,9 +619,43 @@
 Keefe Brasselle (1923–1981), acteur, producteur, écrivain
 Argentina Brunetti (1907–2005), actrice
 Sonny Burke (1914–1980), chef d'orchestre, compositeur, arrangeur, producteur de disques
-Daws Butler (1916–1988), acteur et voix off
-C
-John Candy (1950–1994), acteur et humoriste
+Daws Butler (1916–1988), acteur et voix off</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>John Candy (1950–1994), acteur et humoriste
 Macdonald Carey (1913–1994), acteur
 Chloe Carter (1903-1993), actrice
 Walter Catlett (1889–1960), acteur
@@ -555,9 +672,43 @@
 Lindsay Crosby (1938–1989), actrice et chanteuse
 Phillip Crosby (1934–2004), acteur et chanteur
 Leo Cullum (1942–2010), dessinateur de bande dessinée
-Dick Curtis (1902–1952), acteur
-D
-Mona Darkfeather (1883–1977), actrice
+Dick Curtis (1902–1952), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mona Darkfeather (1883–1977), actrice
 Joan Davis (1907–1961), actrice et humoriste
 Virginia Davis (1918–2009), enfant acteur
 Bobby Day (1928–1990), chanteur
@@ -575,13 +726,81 @@
 Doris Dowling (1923–2004), actrice
 Tom Drake (1918–1982), acteur
 Al Dubin (1891–1945), songwriter
-Jimmy Durante (1893–1980), acteur et humoriste
-E
-Vince Edwards (1928–1996), acteur
+Jimmy Durante (1893–1980), acteur et humoriste</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vince Edwards (1928–1996), acteur
 Richard Egan (1921–1987), acteur
-Lori Esteen (1969-1996), rappeuse du groupe Sweet 'N Lo
-F
-John Fante (1909–1983), romancier, nouvelliste, scénariste
+Lori Esteen (1969-1996), rappeuse du groupe Sweet 'N Lo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>John Fante (1909–1983), romancier, nouvelliste, scénariste
 John Farrow (1904–1963), réalisateur, époux de l'actrice Maureen O'Sullivan, père de l'actrice Mia Farrow
 Emily Fitzroy (1860–1954), actrice
 James Flavin (1906–1976), acteur
@@ -593,9 +812,43 @@
 Victoria Forde (1896–1964), actrice
 Norman Foster (1900–1976), acteur et réalisateur
 Gene Fowler (1890–1960), écrivain
-Mary Frann (1943–1998), actrice
-G
-Richard "Skeets" Gallagher (1891–1955), acteur
+Mary Frann (1943–1998), actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Richard "Skeets" Gallagher (1891–1955), acteur
 Pauline Garon (1900–1965), actrice
 Charles Gemora (1903–1961), acteur et cascadeur
 Ella Margaret Gibson (1894–1964), actrice
@@ -607,9 +860,43 @@
 Bonita Granville (1923–1988), actrice
 Gilda Gray (1901–1959), actrice et danseuse
 Robert Greig (1879–1958), acteur
-Fathia Ghali (1930–1976), princesse d’Égypte
-H
-Jack Haley (1898–1979), acteur et humoriste
+Fathia Ghali (1930–1976), princesse d’Égypte</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jack Haley (1898–1979), acteur et humoriste
 Jack Haley, Jr. (1933–2001), réalisateur, producteur, écrivain
 Joe Hamilton (1929–1991), producteur
 Kipp Hamilton (1934–1981), actrice
@@ -622,17 +909,119 @@
 Emmaline Henry (1928–1979), actrice
 Hugh Herbert (1887–1952), acteur et humoriste
 Conrad Hilton, Jr. (1926–1969), héritier de la chaine d'hôtels Hilton
-Taylor Holmes (1878–1959), acteur
-I
-Amparo Iturbi (1899–1969), compositeur et pianiste de concert
-José Iturbi (1895–1980), compositeur et pianiste de concert
-J
-Rita Johnson (1913–1965), actrice
+Taylor Holmes (1878–1959), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Amparo Iturbi (1899–1969), compositeur et pianiste de concert
+José Iturbi (1895–1980), compositeur et pianiste de concert</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Rita Johnson (1913–1965), actrice
 Spike Jones (1911–1965), musicien et humoriste
 Jim Jordan (1896–1988), acteur et humoriste
-Marian Driscoll Jordan (1898–1961), actrice et humoriste
-K
-Robert Keith (1898–1966), acteur
+Marian Driscoll Jordan (1898–1961), actrice et humoriste</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Robert Keith (1898–1966), acteur
 Paul Kelly (1899–1956), acteur
 Charles Kemper (1900–1950), acteur
 Edgar Kennedy (1890–1948), acteur et humoriste
@@ -641,9 +1030,43 @@
 Cammie King (1934–2010), enfant acteur
 Henry King (1886–1982), réalisateur
 James Kirkwood, Sr. (1875–1963), acteur et réalisateur
-Helen Kleeb (1907–2003), actrice
-L
-Jack La Rue (1902–1984), acteur
+Helen Kleeb (1907–2003), actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jack La Rue (1902–1984), acteur
 Sir Lancelot (1902–2001), chanteur
 Mario Lanza (1921–1959), acteur et chanteur
 Eddie Laughton (1903–1952), acteur
@@ -658,9 +1081,43 @@
 Ella Logan (1913–1969), actrice et chanteuse
 Frank Lovejoy (1912–1962), acteur
 Bela Lugosi (1882–1956), acteur
-William Lundigan (1914–1975), acteur
-M
-Donald MacBride (1889–1957), acteur
+William Lundigan (1914–1975), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Donald MacBride (1889–1957), acteur
 Ranald MacDougall (1915–1973), scénariste
 Fred MacMurray (1908–1991), acteur
 George Marshall (1891–1975), réalisateur
@@ -682,21 +1139,123 @@
 James C. Morton (1884–1942), acteur
 Alan Mowbray (1896–1969), acteur
 Jack Mulhall (1887–1979), acteur
-Richard Murphy (1912–1993), scénariste, réalisateur, producteur
-N
-Anne Nagel (1915–1966), actrice
+Richard Murphy (1912–1993), scénariste, réalisateur, producteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Anne Nagel (1915–1966), actrice
 Reggie Nalder (1907–1991), acteur
 Grete Natzler (1906–1999), actrice et chanteuse
 Evelyn Nesbit (1884–1967), actrice
-Fred C. Newmeyer (1881–1967), réalisateur
-O
-Edmond O'Brien (1915–1985), réalisateur
+Fred C. Newmeyer (1881–1967), réalisateur</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Edmond O'Brien (1915–1985), réalisateur
 Pat O'Brien (1899–1983), acteur
 Helen O'Connell (1920–1993), chanteur
 Barney Oldfield (1878–1946), coureur automobile, réalisateur
-Kid Ory (1886–1973), tromboniste, chef d’orchestre, Dixieland jazz
-P
-Robert Paige (1911–1987), réalisateur
+Kid Ory (1886–1973), tromboniste, chef d’orchestre, Dixieland jazz</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Robert Paige (1911–1987), réalisateur
 George Pal (1908–1980), réalisateur, producteur, animateur
 Hermes Pan (1910–1990), chorégraphe, danseur
 Louella Parsons (1881–1972), écrivain, éditorialiste
@@ -706,16 +1265,84 @@
 Jean Peters (1926–2000), actrice
 ZaSu Pitts (1894–1963), actrice et humoriste
 Paul Porcasi (1879–1946), acteur
-Dick Purcell (1908–1944), acteur
-R
-Rosa Raisa (1893–1963), chanteur d’opéra
+Dick Purcell (1908–1944), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rosa Raisa (1893–1963), chanteur d’opéra
 Alejandro Rey (1930–1987), réalisateur
 Kane Richmond (1906–1973), réalisateur
 Hayden Rorke (1910–1987), réalisateur
 Rosalind Russell (1907–1976), actrice
-Faiza Rauf (1923–1994), princesse d'Egypte
-S
-Gia Scala (1934–1972), actrice
+Faiza Rauf (1923–1994), princesse d'Egypte</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Gia Scala (1934–1972), actrice
 Fred F. Sears (1913–1957), acteur et réalisateur
 Dorothy Sebastian (1903–1957), actrice
 Edward Sedgwick (1889–1953), acteur, réalisateur, scénariste, producteur
@@ -728,17 +1355,119 @@
 Miriam Snitzer (1922–1966), actrice
 Jo Stafford (1917–2008), chanteuse
 Harry Stradling (1901–1970), directeur de la photographie
-Edmund Sylvers (1957–2004), chanteur
-T
-Sharon Tate (1943–1969), actrice tuée par la Manson family
+Edmund Sylvers (1957–2004), chanteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sharon Tate (1943–1969), actrice tuée par la Manson family
 Ray Teal (1902–1976), acteur
-Dewey Terry (1938–2003), musicien
-V
-Joseph A. Valentine (1900–1949), directeur de la photographie
+Dewey Terry (1938–2003), musicien</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Joseph A. Valentine (1900–1949), directeur de la photographie
 Mabel Van Buren (1878–1947), actrice
-Joe Viterelli (1937–2004), acteur
-W
-Geraldine Wall (1912–1970), actrice
+Joe Viterelli (1937–2004), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Geraldine Wall (1912–1970), actrice
 Robert Warwick (1878–1964), acteur
 Bryant Washburn (1889–1963), acteur
 Ned Washington (1901–1976), auteur compositeur
@@ -747,9 +1476,43 @@
 Paul Weston (1912–1996), chef d'orchestre, arrangeur et compositeur
 Tim Whelan (1893–1957), réalisateur et scénariste
 Mary Wilson (1944-2021), chanteuse ; membre fondateur du groupe The Supremes
-Paula Winslowe (1910–1996), actrice
-Y
-Georgiana Young (1923–2007), actrice
+Paula Winslowe (1910–1996), actrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holy_Cross_Cemetery_(Culver_City)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Célébrités inhumées</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Georgiana Young (1923–2007), actrice
 Loretta Young (1913–2000), actrice
 Polly Ann Young (1908–1997), actrice</t>
         </is>
